--- a/TestExternalPart/data/SmokeTest.xlsx
+++ b/TestExternalPart/data/SmokeTest.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="test2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>url</t>
   </si>
@@ -23,7 +24,13 @@
     <t>https://www.google.com.ua/</t>
   </si>
   <si>
-    <t>http://epuakhaw0693:8081/KhExternalPreProdPortal/departments</t>
+    <t>http://epuakhaw0693:8081/KhExternalPreProdPortal/candidates/</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>;№;First Name;Last Name;Middle Name;Phone;BirthDate;Email;Fill Date</t>
   </si>
 </sst>
 </file>
@@ -376,25 +383,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestExternalPart/data/SmokeTest.xlsx
+++ b/TestExternalPart/data/SmokeTest.xlsx
@@ -4,33 +4,54 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="5490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="5490" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="test2" sheetId="2" r:id="rId2"/>
+    <sheet name="testCreate" sheetId="5" r:id="rId3"/>
+    <sheet name="testEdit" sheetId="4" r:id="rId4"/>
+    <sheet name="testCreateNewCandidate" sheetId="6" r:id="rId5"/>
+    <sheet name="testView" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>https://www.google.com.ua/</t>
-  </si>
-  <si>
-    <t>http://epuakhaw0693:8081/KhExternalPreProdPortal/candidates/</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>;№;First Name;Last Name;Middle Name;Phone;BirthDate;Email;Fill Date</t>
+    <t>http://epuakhaw0162:8080/KhExternalPreProdPortal/departments;jsessionid=13A61F099C0ACAA5E89275E210A5489C</t>
+  </si>
+  <si>
+    <t>First name;Last name;Middle name;Birth date;Email;Phone;Secondary phone;University name;Faculty name; Academic degree;Education start year;Graduation year;Additional education;Relevant skills;Languages;Referrer;Attempt count;Stream;Fill date</t>
+  </si>
+  <si>
+    <t>textCreate</t>
+  </si>
+  <si>
+    <t>textView</t>
+  </si>
+  <si>
+    <t>First name;Last name;Middle name;Birth date;Email;Primary phone number;Secondary phone number;University;Faculty;Degree;Education start date;Graduation date;Extra education;Relevant skills;Language;Referrer;Banned;Stream;Attempt amount;Filling date</t>
+  </si>
+  <si>
+    <t>http://epuakhaw0701:8080/KhExternalPreProdPortal/candidate/21</t>
+  </si>
+  <si>
+    <t>url_profile_view</t>
+  </si>
+  <si>
+    <t>textEdit</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Ololo;Ololoev;Olololoevich;02.12.2014;sdhgjshgj@mail.ru;+380505465345;</t>
   </si>
 </sst>
 </file>
@@ -75,9 +96,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -383,44 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,4 +434,153 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>